--- a/Is there a difference between happiness and the amount of classes you take?   (Responses).xlsx
+++ b/Is there a difference between happiness and the amount of classes you take?   (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="10">
   <si>
     <t>Timestamp</t>
   </si>
@@ -2791,6 +2791,1566 @@
         <v>7</v>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" s="3">
+        <v>45229.77585719907</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E125" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3">
+        <v>45229.7760330787</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E126" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3">
+        <v>45229.83511909722</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E127" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3">
+        <v>45229.8426000926</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E128" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3">
+        <v>45229.86228185185</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E129" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3">
+        <v>45229.873286435184</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E130" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3">
+        <v>45229.89572834491</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E131" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3">
+        <v>45229.937535879624</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E132" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3">
+        <v>45229.959481157406</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E133" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3">
+        <v>45230.29311291667</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E134" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3">
+        <v>45230.33271336806</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E135" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3">
+        <v>45230.36237971065</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E136" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3">
+        <v>45230.41600153936</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E137" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3">
+        <v>45230.43900707176</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E138" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3">
+        <v>45231.53512159722</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="E139" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3">
+        <v>45231.546940706015</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E140" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3">
+        <v>45231.54712641204</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="E141" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3">
+        <v>45231.54725991898</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E142" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3">
+        <v>45231.54744560186</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="E143" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3">
+        <v>45231.547686550926</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E144" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3">
+        <v>45231.547911574075</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E145" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3">
+        <v>45231.54807445602</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E146" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3">
+        <v>45231.54817847222</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E147" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3">
+        <v>45231.54829446759</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E148" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3">
+        <v>45231.54841487268</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E149" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="3">
+        <v>45231.548836180555</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="E150" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3">
+        <v>45231.549098449075</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E151" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="3">
+        <v>45231.549210833335</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E152" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="3">
+        <v>45231.54930773148</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E153" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="3">
+        <v>45231.54960038194</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E154" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3">
+        <v>45232.53786513889</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E155" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="3">
+        <v>45232.53797225695</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E156" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="3">
+        <v>45232.53806815972</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="E157" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="3">
+        <v>45232.53819024305</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E158" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3">
+        <v>45232.5383203588</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E159" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="3">
+        <v>45232.53841386574</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="E160" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3">
+        <v>45232.5384972801</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E161" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3">
+        <v>45232.53859335648</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="E162" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3">
+        <v>45232.53870498843</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E163" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="3">
+        <v>45232.538804490745</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="E164" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3">
+        <v>45232.539097789355</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E165" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3">
+        <v>45232.81806240741</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E166" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3">
+        <v>45233.65069608796</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E167" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="3">
+        <v>45233.651158148146</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E168" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3">
+        <v>45233.65130509259</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E169" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3">
+        <v>45233.65150839121</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="E170" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3">
+        <v>45233.65200908565</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E171" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3">
+        <v>45233.65213349537</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E172" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3">
+        <v>45233.6522565625</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E173" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3">
+        <v>45235.80372520833</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E174" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3">
+        <v>45235.80391971065</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="E175" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3">
+        <v>45235.804001192126</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E176" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3">
+        <v>45235.80414731482</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E177" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3">
+        <v>45235.80426704861</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E178" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3">
+        <v>45235.80435726852</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="E179" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3">
+        <v>45235.804456134254</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E180" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="3">
+        <v>45235.80457842593</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E181" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="3">
+        <v>45235.80476064815</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E182" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3">
+        <v>45235.80485770833</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E183" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="3">
+        <v>45235.8050315162</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E184" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="3">
+        <v>45235.80513440972</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E185" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3">
+        <v>45235.80522520833</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E186" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3">
+        <v>45235.805382418985</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E187" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="3">
+        <v>45235.80549745371</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E188" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3">
+        <v>45235.80577896991</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E189" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="3">
+        <v>45235.80588354167</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E190" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3">
+        <v>45235.805977951386</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E191" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3">
+        <v>45235.80613921296</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E192" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="3">
+        <v>45235.80626190972</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E193" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="3">
+        <v>45235.806524155094</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E194" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3">
+        <v>45235.80660186343</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="E195" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="3">
+        <v>45235.80673644676</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E196" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="3">
+        <v>45235.80685145833</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E197" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="3">
+        <v>45235.80738774306</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E198" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="3">
+        <v>45235.807474166664</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E199" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="3">
+        <v>45235.807552708335</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E200" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="3">
+        <v>45235.80767394676</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E201" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="3">
+        <v>45235.807772037035</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E202" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
